--- a/rhla_analysis/rhla1_3_exp_result/k7.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k7.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02111360758799036</v>
+        <v>0.02111360758799035</v>
       </c>
       <c r="B2" t="n">
         <v>0.3492977207536876</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00415624870902885</v>
+        <v>0.004156248709028859</v>
       </c>
       <c r="B3" t="n">
         <v>0.2880831902551507</v>
@@ -480,12 +480,12 @@
         <v>0.1487638533674339</v>
       </c>
       <c r="D3" t="n">
-        <v>69.31327031256131</v>
+        <v>69.31327031256117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01265975899476307</v>
+        <v>0.01265975899476309</v>
       </c>
       <c r="B4" t="n">
         <v>0.3109570621789284</v>
@@ -494,12 +494,12 @@
         <v>0.1406649616368287</v>
       </c>
       <c r="D4" t="n">
-        <v>24.56263680118722</v>
+        <v>24.56263680118719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006440367986335781</v>
+        <v>0.006440367986335788</v>
       </c>
       <c r="B5" t="n">
         <v>0.3187580403171333</v>
@@ -508,12 +508,12 @@
         <v>0.144075021312873</v>
       </c>
       <c r="D5" t="n">
-        <v>49.49376200139913</v>
+        <v>49.49376200139908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.007796980795552774</v>
+        <v>0.007796980795552877</v>
       </c>
       <c r="B6" t="n">
         <v>0.3161824488186962</v>
@@ -522,26 +522,26 @@
         <v>0.1364023870417732</v>
       </c>
       <c r="D6" t="n">
-        <v>40.55190811795249</v>
+        <v>40.55190811795195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004960023096089107</v>
+        <v>0.004960023096089112</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2846658693327323</v>
+        <v>0.2846658693327322</v>
       </c>
       <c r="C7" t="n">
         <v>0.1474850809889173</v>
       </c>
       <c r="D7" t="n">
-        <v>57.39204512115809</v>
+        <v>57.39204512115803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005402287165755247</v>
+        <v>0.005402287165755216</v>
       </c>
       <c r="B8" t="n">
         <v>0.3207311888046405</v>
@@ -550,12 +550,12 @@
         <v>0.1538789428815004</v>
       </c>
       <c r="D8" t="n">
-        <v>59.36951868048315</v>
+        <v>59.36951868048349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003949775019902702</v>
+        <v>0.003949775019902711</v>
       </c>
       <c r="B9" t="n">
         <v>0.2944077481836825</v>
@@ -564,12 +564,12 @@
         <v>0.1410912190963342</v>
       </c>
       <c r="D9" t="n">
-        <v>74.53785258658478</v>
+        <v>74.53785258658461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.005239113257281775</v>
+        <v>0.005239113257281754</v>
       </c>
       <c r="B10" t="n">
         <v>0.3352533644276721</v>
@@ -578,12 +578,12 @@
         <v>0.1415174765558397</v>
       </c>
       <c r="D10" t="n">
-        <v>63.99047853407402</v>
+        <v>63.99047853407428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01061526090753703</v>
+        <v>0.01061526090753714</v>
       </c>
       <c r="B11" t="n">
         <v>0.3147851958818502</v>
@@ -592,7 +592,7 @@
         <v>0.1517476555839727</v>
       </c>
       <c r="D11" t="n">
-        <v>29.65402345017699</v>
+        <v>29.65402345017669</v>
       </c>
     </row>
   </sheetData>
